--- a/data/nzd0148/nzd0148.xlsx
+++ b/data/nzd0148/nzd0148.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I562"/>
+  <dimension ref="A1:I568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17347,6 +17347,204 @@
         <v>389.16</v>
       </c>
       <c r="I562" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>351.6288888888889</v>
+      </c>
+      <c r="C563" t="n">
+        <v>350.2663636363636</v>
+      </c>
+      <c r="D563" t="n">
+        <v>348.9463636363636</v>
+      </c>
+      <c r="E563" t="n">
+        <v>339.2888888888889</v>
+      </c>
+      <c r="F563" t="n">
+        <v>347.5188888888889</v>
+      </c>
+      <c r="G563" t="n">
+        <v>370.35</v>
+      </c>
+      <c r="H563" t="n">
+        <v>378.32</v>
+      </c>
+      <c r="I563" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>352.8488888888889</v>
+      </c>
+      <c r="C564" t="n">
+        <v>342.5354545454546</v>
+      </c>
+      <c r="D564" t="n">
+        <v>345.4154545454546</v>
+      </c>
+      <c r="E564" t="n">
+        <v>350.1088888888889</v>
+      </c>
+      <c r="F564" t="n">
+        <v>352.6988888888889</v>
+      </c>
+      <c r="G564" t="n">
+        <v>371.74</v>
+      </c>
+      <c r="H564" t="n">
+        <v>375.31</v>
+      </c>
+      <c r="I564" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>349.2511111111111</v>
+      </c>
+      <c r="C565" t="n">
+        <v>348.3472727272728</v>
+      </c>
+      <c r="D565" t="n">
+        <v>343.5972727272728</v>
+      </c>
+      <c r="E565" t="n">
+        <v>338.5311111111111</v>
+      </c>
+      <c r="F565" t="n">
+        <v>346.7311111111111</v>
+      </c>
+      <c r="G565" t="n">
+        <v>367.91</v>
+      </c>
+      <c r="H565" t="n">
+        <v>376.53</v>
+      </c>
+      <c r="I565" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>349.5388888888889</v>
+      </c>
+      <c r="C566" t="n">
+        <v>343.2227272727272</v>
+      </c>
+      <c r="D566" t="n">
+        <v>347.9827272727272</v>
+      </c>
+      <c r="E566" t="n">
+        <v>345.4788888888889</v>
+      </c>
+      <c r="F566" t="n">
+        <v>356.0988888888889</v>
+      </c>
+      <c r="G566" t="n">
+        <v>369.13</v>
+      </c>
+      <c r="H566" t="n">
+        <v>373.26</v>
+      </c>
+      <c r="I566" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>347.1066666666667</v>
+      </c>
+      <c r="C567" t="n">
+        <v>336.09</v>
+      </c>
+      <c r="D567" t="n">
+        <v>335.23</v>
+      </c>
+      <c r="E567" t="n">
+        <v>341.2266666666667</v>
+      </c>
+      <c r="F567" t="n">
+        <v>354.1566666666667</v>
+      </c>
+      <c r="G567" t="n">
+        <v>368.27</v>
+      </c>
+      <c r="H567" t="n">
+        <v>373.7</v>
+      </c>
+      <c r="I567" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>348.1477777777778</v>
+      </c>
+      <c r="C568" t="n">
+        <v>348.1309090909091</v>
+      </c>
+      <c r="D568" t="n">
+        <v>344.930909090909</v>
+      </c>
+      <c r="E568" t="n">
+        <v>344.6777777777777</v>
+      </c>
+      <c r="F568" t="n">
+        <v>350.0177777777778</v>
+      </c>
+      <c r="G568" t="n">
+        <v>361.04</v>
+      </c>
+      <c r="H568" t="n">
+        <v>370.13</v>
+      </c>
+      <c r="I568" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17363,7 +17561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B585"/>
+  <dimension ref="A1:B591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23221,6 +23419,66 @@
       </c>
       <c r="B585" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -23389,28 +23647,28 @@
         <v>0.0514</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3222174272228525</v>
+        <v>-0.2845756885175966</v>
       </c>
       <c r="J2" t="n">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="K2" t="n">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01438959945654572</v>
+        <v>0.0114906068571462</v>
       </c>
       <c r="M2" t="n">
-        <v>14.76719507723128</v>
+        <v>14.70141430764233</v>
       </c>
       <c r="N2" t="n">
-        <v>348.4430362556586</v>
+        <v>346.10046757489</v>
       </c>
       <c r="O2" t="n">
-        <v>18.66662894728608</v>
+        <v>18.60377562686913</v>
       </c>
       <c r="P2" t="n">
-        <v>344.3157307626125</v>
+        <v>343.9212743340002</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -23466,28 +23724,28 @@
         <v>0.0624</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.146299306348203</v>
+        <v>-0.1541614811482738</v>
       </c>
       <c r="J3" t="n">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="K3" t="n">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02391312558638192</v>
+        <v>0.02697028839709059</v>
       </c>
       <c r="M3" t="n">
-        <v>5.189008592926465</v>
+        <v>5.174933336721188</v>
       </c>
       <c r="N3" t="n">
-        <v>44.16738413396799</v>
+        <v>43.97551213620316</v>
       </c>
       <c r="O3" t="n">
-        <v>6.645854657902773</v>
+        <v>6.631403481632162</v>
       </c>
       <c r="P3" t="n">
-        <v>351.3145141674468</v>
+        <v>351.3947783133465</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -23543,28 +23801,28 @@
         <v>0.0563</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1228265615817217</v>
+        <v>-0.1361976365998404</v>
       </c>
       <c r="J4" t="n">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="K4" t="n">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01544176477514259</v>
+        <v>0.01920209110807924</v>
       </c>
       <c r="M4" t="n">
-        <v>5.236128409471537</v>
+        <v>5.233411673593171</v>
       </c>
       <c r="N4" t="n">
-        <v>48.03635781396143</v>
+        <v>47.9862922251863</v>
       </c>
       <c r="O4" t="n">
-        <v>6.930826632802283</v>
+        <v>6.927213886201746</v>
       </c>
       <c r="P4" t="n">
-        <v>352.5034251936553</v>
+        <v>352.6405519875967</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -23620,28 +23878,28 @@
         <v>0.0462</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1045986319005507</v>
+        <v>-0.1194399762707062</v>
       </c>
       <c r="J5" t="n">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="K5" t="n">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01162987623762535</v>
+        <v>0.01532264278585138</v>
       </c>
       <c r="M5" t="n">
-        <v>5.478953865603358</v>
+        <v>5.48550666171832</v>
       </c>
       <c r="N5" t="n">
-        <v>47.00434163507372</v>
+        <v>47.00593504767966</v>
       </c>
       <c r="O5" t="n">
-        <v>6.855971239370373</v>
+        <v>6.85608744457651</v>
       </c>
       <c r="P5" t="n">
-        <v>351.562228826572</v>
+        <v>351.7124510841009</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -23697,28 +23955,28 @@
         <v>0.0469</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03924320210353627</v>
+        <v>-0.04893850753575821</v>
       </c>
       <c r="J6" t="n">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="K6" t="n">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001695719183119837</v>
+        <v>0.002683956838950952</v>
       </c>
       <c r="M6" t="n">
-        <v>5.372733949806933</v>
+        <v>5.358763845393665</v>
       </c>
       <c r="N6" t="n">
-        <v>46.42243406185325</v>
+        <v>46.1548721056343</v>
       </c>
       <c r="O6" t="n">
-        <v>6.813401064215525</v>
+        <v>6.793737712455074</v>
       </c>
       <c r="P6" t="n">
-        <v>356.0485374929951</v>
+        <v>356.1469294100276</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -23774,28 +24032,28 @@
         <v>0.0407</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1392063614895228</v>
+        <v>-0.1427610384048917</v>
       </c>
       <c r="J7" t="n">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="K7" t="n">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="L7" t="n">
-        <v>0.016307197338984</v>
+        <v>0.0175131134778882</v>
       </c>
       <c r="M7" t="n">
-        <v>5.881833717617205</v>
+        <v>5.838297860346541</v>
       </c>
       <c r="N7" t="n">
-        <v>60.92292038757277</v>
+        <v>60.31274786910274</v>
       </c>
       <c r="O7" t="n">
-        <v>7.805313599566181</v>
+        <v>7.766128241865617</v>
       </c>
       <c r="P7" t="n">
-        <v>373.0494436477439</v>
+        <v>373.0854001367688</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -23851,28 +24109,28 @@
         <v>0.0253</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.07771895676025928</v>
+        <v>-0.09922555895295003</v>
       </c>
       <c r="J8" t="n">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="K8" t="n">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002813936396952155</v>
+        <v>0.004652837886725769</v>
       </c>
       <c r="M8" t="n">
-        <v>8.216133444490952</v>
+        <v>8.223716504977149</v>
       </c>
       <c r="N8" t="n">
-        <v>111.8793476895742</v>
+        <v>111.448737393796</v>
       </c>
       <c r="O8" t="n">
-        <v>10.57730342240281</v>
+        <v>10.55692840715499</v>
       </c>
       <c r="P8" t="n">
-        <v>385.1783783703935</v>
+        <v>385.3947758398337</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -23909,7 +24167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I562"/>
+  <dimension ref="A1:I568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47043,6 +47301,288 @@
         </is>
       </c>
     </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>-36.639338478649734,174.75090698167804</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>-36.63967623851457,174.7501124727041</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>-36.64004618042823,174.74932804441443</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>-36.640440905518425,174.74855726330017</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>-36.640977007667374,174.74794900765468</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>-36.64158127430366,174.7474257684223</t>
+        </is>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>-36.64214777763347,174.74688964902097</t>
+        </is>
+      </c>
+      <c r="I563" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>-36.63934803672815,174.75091372496559</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>-36.639616444918396,174.7500680945593</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>-36.64002048117172,174.7493047584213</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>-36.64051410474915,174.74863720731233</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>-36.64101214793081,174.74798714388484</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>-36.64159031881376,174.747436523801</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>-36.64212954979602,174.74686471890993</t>
+        </is>
+      </c>
+      <c r="I564" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>-36.63931984997104,174.75089383902775</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>-36.639661395585776,174.75010145643893</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>-36.640007247772964,174.74929276769973</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>-36.64043577901435,174.7485516644338</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>-36.64097166351203,174.747943207875</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>-36.641565397607124,174.747406888483</t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>-36.642136937823835,174.7468748234718</t>
+        </is>
+      </c>
+      <c r="I565" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>-36.639322104563554,174.75089542965657</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>-36.63962176053048,174.7500720397443</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>-36.64003916672845,174.74932168932722</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>-36.64048278198014,174.74860299834953</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>-36.64103521296132,174.7480121754062</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>-36.64157333595579,174.7474163284517</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>-36.64211713548494,174.74684773993738</t>
+        </is>
+      </c>
+      <c r="I566" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>-36.639303049338835,174.75088198608233</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>-36.63956659346967,174.75003109543036</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>-36.63994634765461,174.74923758645255</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>-36.64045401493518,174.7485715806393</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>-36.641022037251794,174.7479978763523</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>-36.64156774007074,174.74740967404736</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>-36.642119800020204,174.7468513842042</t>
+        </is>
+      </c>
+      <c r="I567" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>-36.63931120591537,174.75088774059455</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>-36.63965972215271,174.7501002144349</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>-36.64001695447108,174.7493015628936</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>-36.64047736232069,174.74859707930696</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>-36.64099395971805,174.74796740498658</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>-36.641520695579345,174.74735373066292</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>-36.64209818094642,174.7468218159556</t>
+        </is>
+      </c>
+      <c r="I568" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0148/nzd0148.xlsx
+++ b/data/nzd0148/nzd0148.xlsx
@@ -23492,7 +23492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23583,35 +23583,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -23670,27 +23675,28 @@
       <c r="P2" t="n">
         <v>343.9212743340002</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.74896349948156 -36.636583627078274, 174.75404994831172 -36.643793077085235)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.7489634994816</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.63658362707827</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.7540499483117</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.64379307708523</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.7515067238966</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.64018835208175</v>
       </c>
     </row>
@@ -23747,27 +23753,28 @@
       <c r="P3" t="n">
         <v>351.3947783133465</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.74810189034943 -36.636967135064864, 174.7533845612848 -36.644084627395394)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.7481018903494</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.63696713506486</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.7533845612848</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.64408462739539</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.7507432258171</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.64052588123013</v>
       </c>
     </row>
@@ -23824,27 +23831,28 @@
       <c r="P4" t="n">
         <v>352.6405519875967</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.74702685357488 -36.63750639578563, 174.75309668486483 -36.64420509276497)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.7470268535749</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.63750639578563</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.7530966848648</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.64420509276497</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.7500617692199</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.6408557442753</v>
       </c>
     </row>
@@ -23901,27 +23909,28 @@
       <c r="P5" t="n">
         <v>351.7124510841009</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.74605049059147 -36.63814552593046, 174.75285165979534 -36.64437270888496)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.7460504905915</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.63814552593046</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.7528516597953</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.64437270888496</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.7494510751934</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.64125911740771</v>
       </c>
     </row>
@@ -23978,27 +23987,28 @@
       <c r="P6" t="n">
         <v>356.1469294100276</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.7453905813196 -36.63861946653374, 174.75216745703452 -36.6448637820305)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.7453905813196</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.63861946653374</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.7521674570345</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.6448637820305</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.7487790191771</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.64174162428212</v>
       </c>
     </row>
@@ -24055,27 +24065,28 @@
       <c r="P7" t="n">
         <v>373.0854001367688</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.74456020746882 -36.63917142797457, 174.7516831472094 -36.64516117991589)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.7445602074688</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.63917142797457</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.7516831472094</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.64516117991589</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.7481216773391</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.64216630394523</v>
       </c>
     </row>
@@ -24132,27 +24143,28 @@
       <c r="P8" t="n">
         <v>385.3947758398337</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.74375633232293 -36.63985671876029, 174.7513815083659 -36.645431803238544)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.7437563323229</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.63985671876029</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.7513815083659</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.64543180323854</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.7475689203444</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.64264426099942</v>
       </c>
     </row>

--- a/data/nzd0148/nzd0148.xlsx
+++ b/data/nzd0148/nzd0148.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I568"/>
+  <dimension ref="A1:I572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17547,6 +17547,138 @@
       <c r="I568" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>357.7633333333333</v>
+      </c>
+      <c r="C569" t="n">
+        <v>354.2263636363636</v>
+      </c>
+      <c r="D569" t="n">
+        <v>354.7463636363636</v>
+      </c>
+      <c r="E569" t="n">
+        <v>351.1833333333333</v>
+      </c>
+      <c r="F569" t="n">
+        <v>354.6733333333333</v>
+      </c>
+      <c r="G569" t="n">
+        <v>373.82</v>
+      </c>
+      <c r="H569" t="n">
+        <v>390.8</v>
+      </c>
+      <c r="I569" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>345.9433333333333</v>
+      </c>
+      <c r="C570" t="n">
+        <v>349.5518181818182</v>
+      </c>
+      <c r="D570" t="n">
+        <v>350.6918181818182</v>
+      </c>
+      <c r="E570" t="n">
+        <v>352.1233333333333</v>
+      </c>
+      <c r="F570" t="n">
+        <v>359.0233333333333</v>
+      </c>
+      <c r="G570" t="n">
+        <v>376.59</v>
+      </c>
+      <c r="H570" t="n">
+        <v>394.38</v>
+      </c>
+      <c r="I570" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>346.0755555555555</v>
+      </c>
+      <c r="C571" t="n">
+        <v>352.3936363636363</v>
+      </c>
+      <c r="D571" t="n">
+        <v>355.0036363636364</v>
+      </c>
+      <c r="E571" t="n">
+        <v>352.9255555555555</v>
+      </c>
+      <c r="F571" t="n">
+        <v>353.4155555555556</v>
+      </c>
+      <c r="G571" t="n">
+        <v>371.29</v>
+      </c>
+      <c r="H571" t="n">
+        <v>381</v>
+      </c>
+      <c r="I571" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>332.8666666666667</v>
+      </c>
+      <c r="C572" t="n">
+        <v>342.1318181818182</v>
+      </c>
+      <c r="D572" t="n">
+        <v>345.1318181818182</v>
+      </c>
+      <c r="E572" t="n">
+        <v>340.9166666666667</v>
+      </c>
+      <c r="F572" t="n">
+        <v>350.7066666666667</v>
+      </c>
+      <c r="G572" t="n">
+        <v>365.3</v>
+      </c>
+      <c r="H572" t="n">
+        <v>377.37</v>
+      </c>
+      <c r="I572" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -17561,7 +17693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B591"/>
+  <dimension ref="A1:B595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23479,6 +23611,46 @@
       </c>
       <c r="B591" t="n">
         <v>0.17</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -23652,28 +23824,28 @@
         <v>0.0514</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2845756885175966</v>
+        <v>-0.2680945266610124</v>
       </c>
       <c r="J2" t="n">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="K2" t="n">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0114906068571462</v>
+        <v>0.01035762999697998</v>
       </c>
       <c r="M2" t="n">
-        <v>14.70141430764233</v>
+        <v>14.6462572844758</v>
       </c>
       <c r="N2" t="n">
-        <v>346.10046757489</v>
+        <v>344.3450258604306</v>
       </c>
       <c r="O2" t="n">
-        <v>18.60377562686913</v>
+        <v>18.55653593374665</v>
       </c>
       <c r="P2" t="n">
-        <v>343.9212743340002</v>
+        <v>343.7470301361031</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23730,28 +23902,28 @@
         <v>0.0624</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1541614811482738</v>
+        <v>-0.1503014927091025</v>
       </c>
       <c r="J3" t="n">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="K3" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02697028839709059</v>
+        <v>0.02601190790894137</v>
       </c>
       <c r="M3" t="n">
-        <v>5.174933336721188</v>
+        <v>5.170688254550085</v>
       </c>
       <c r="N3" t="n">
-        <v>43.97551213620316</v>
+        <v>43.80444815138634</v>
       </c>
       <c r="O3" t="n">
-        <v>6.631403481632162</v>
+        <v>6.61849289123939</v>
       </c>
       <c r="P3" t="n">
-        <v>351.3947783133465</v>
+        <v>351.3551285738881</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23808,28 +23980,28 @@
         <v>0.0563</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1361976365998404</v>
+        <v>-0.1322846431759659</v>
       </c>
       <c r="J4" t="n">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="K4" t="n">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01920209110807924</v>
+        <v>0.01839321064561616</v>
       </c>
       <c r="M4" t="n">
-        <v>5.233411673593171</v>
+        <v>5.224489105006564</v>
       </c>
       <c r="N4" t="n">
-        <v>47.9862922251863</v>
+        <v>47.74760922596874</v>
       </c>
       <c r="O4" t="n">
-        <v>6.927213886201746</v>
+        <v>6.909964488039627</v>
       </c>
       <c r="P4" t="n">
-        <v>352.6405519875967</v>
+        <v>352.600113182999</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23886,28 +24058,28 @@
         <v>0.0462</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1194399762707062</v>
+        <v>-0.1183687875477368</v>
       </c>
       <c r="J5" t="n">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="K5" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01532264278585138</v>
+        <v>0.01525834888332323</v>
       </c>
       <c r="M5" t="n">
-        <v>5.48550666171832</v>
+        <v>5.476949155867186</v>
       </c>
       <c r="N5" t="n">
-        <v>47.00593504767966</v>
+        <v>46.80757685807245</v>
       </c>
       <c r="O5" t="n">
-        <v>6.85608744457651</v>
+        <v>6.841606306860433</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7124510841009</v>
+        <v>351.7015843248942</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23964,28 +24136,28 @@
         <v>0.0469</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04893850753575821</v>
+        <v>-0.049689472743052</v>
       </c>
       <c r="J6" t="n">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="K6" t="n">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002683956838950952</v>
+        <v>0.002810071292517979</v>
       </c>
       <c r="M6" t="n">
-        <v>5.358763845393665</v>
+        <v>5.334221089652021</v>
       </c>
       <c r="N6" t="n">
-        <v>46.1548721056343</v>
+        <v>45.83623388043292</v>
       </c>
       <c r="O6" t="n">
-        <v>6.793737712455074</v>
+        <v>6.77024622007449</v>
       </c>
       <c r="P6" t="n">
-        <v>356.1469294100276</v>
+        <v>356.1547097846946</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24042,28 +24214,28 @@
         <v>0.0407</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1427610384048917</v>
+        <v>-0.1390271670802765</v>
       </c>
       <c r="J7" t="n">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="K7" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0175131134778882</v>
+        <v>0.01684644402452329</v>
       </c>
       <c r="M7" t="n">
-        <v>5.838297860346541</v>
+        <v>5.825090248255337</v>
       </c>
       <c r="N7" t="n">
-        <v>60.31274786910274</v>
+        <v>59.9915466608375</v>
       </c>
       <c r="O7" t="n">
-        <v>7.766128241865617</v>
+        <v>7.745421012497481</v>
       </c>
       <c r="P7" t="n">
-        <v>373.0854001367688</v>
+        <v>373.0474542250277</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24120,28 +24292,28 @@
         <v>0.0253</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.09922555895295003</v>
+        <v>-0.09428211389415789</v>
       </c>
       <c r="J8" t="n">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="K8" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004652837886725769</v>
+        <v>0.004255500349682473</v>
       </c>
       <c r="M8" t="n">
-        <v>8.223716504977149</v>
+        <v>8.209906540285745</v>
       </c>
       <c r="N8" t="n">
-        <v>111.448737393796</v>
+        <v>110.9779205116884</v>
       </c>
       <c r="O8" t="n">
-        <v>10.55692840715499</v>
+        <v>10.53460585459601</v>
       </c>
       <c r="P8" t="n">
-        <v>385.3947758398337</v>
+        <v>385.3447421060616</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24179,7 +24351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I568"/>
+  <dimension ref="A1:I572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47595,6 +47767,194 @@
         </is>
       </c>
     </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>-36.63938653889202,174.7509408885173</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>-36.639706866553446,174.7501352045278</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>-36.640088394952905,174.74936629486965</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>-36.64052137355436,174.74864514589729</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>-36.64102554223191,174.7480016801619</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>-36.64160385304276,174.74745261818538</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>-36.64222335345802,174.7469930138588</t>
+        </is>
+      </c>
+      <c r="I569" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>-36.639293935212905,174.75087555601516</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>-36.639670711967085,174.75010837095826</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>-36.64005888448725,174.74933955551876</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>-36.64052773281882,174.7486520911342</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>-36.64105505189802,174.74803370579863</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>-36.64162187698828,174.747474051581</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>-36.642245033043814,174.74702266502737</t>
+        </is>
+      </c>
+      <c r="I570" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>-36.6392949711069,174.75087628684412</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>-36.63969269159392,174.75012468401206</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>-36.64009026747773,174.74936799156006</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>-36.64053315999215,174.74865801839402</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>-36.6410170096779,174.74799242013563</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>-36.641587390735076,174.7474330418436</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>-36.64216400706543,174.7469118459403</t>
+        </is>
+      </c>
+      <c r="I571" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>-36.639191486142344,174.7508032777448</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>-36.6396133230509,174.75006577754613</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>-36.6400184167616,174.74930288786845</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>-36.640451917729294,174.74856929019307</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>-36.64099863302627,174.74797247672913</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>-36.641548414743696,174.74738669314672</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>-36.64214202466212,174.74688178071224</t>
+        </is>
+      </c>
+      <c r="I572" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0148/nzd0148.xlsx
+++ b/data/nzd0148/nzd0148.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I572"/>
+  <dimension ref="A1:I577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17679,6 +17679,147 @@
       <c r="I572" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>321.0211111111111</v>
+      </c>
+      <c r="C573" t="n">
+        <v>352.2809090909091</v>
+      </c>
+      <c r="D573" t="n">
+        <v>354.4509090909091</v>
+      </c>
+      <c r="E573" t="n">
+        <v>354.7211111111111</v>
+      </c>
+      <c r="F573" t="n">
+        <v>359.2711111111111</v>
+      </c>
+      <c r="G573" t="n">
+        <v>380.58</v>
+      </c>
+      <c r="H573" t="n">
+        <v>381.23</v>
+      </c>
+      <c r="I573" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>336.9855555555555</v>
+      </c>
+      <c r="C574" t="n">
+        <v>348.8354545454546</v>
+      </c>
+      <c r="D574" t="n">
+        <v>351.0154545454546</v>
+      </c>
+      <c r="E574" t="n">
+        <v>353.9055555555556</v>
+      </c>
+      <c r="F574" t="n">
+        <v>356.3855555555555</v>
+      </c>
+      <c r="G574" t="n">
+        <v>379.53</v>
+      </c>
+      <c r="H574" t="n">
+        <v>383.27</v>
+      </c>
+      <c r="I574" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr"/>
+      <c r="C575" t="inlineStr"/>
+      <c r="D575" t="inlineStr"/>
+      <c r="E575" t="n">
+        <v>341.9544444444444</v>
+      </c>
+      <c r="F575" t="n">
+        <v>350.4744444444444</v>
+      </c>
+      <c r="G575" t="n">
+        <v>367.16</v>
+      </c>
+      <c r="H575" t="n">
+        <v>386.86</v>
+      </c>
+      <c r="I575" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr"/>
+      <c r="C576" t="inlineStr"/>
+      <c r="D576" t="inlineStr"/>
+      <c r="E576" t="inlineStr"/>
+      <c r="F576" t="n">
+        <v>361.52</v>
+      </c>
+      <c r="G576" t="n">
+        <v>376.56</v>
+      </c>
+      <c r="H576" t="n">
+        <v>392.56</v>
+      </c>
+      <c r="I576" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr"/>
+      <c r="C577" t="inlineStr"/>
+      <c r="D577" t="inlineStr"/>
+      <c r="E577" t="inlineStr"/>
+      <c r="F577" t="inlineStr"/>
+      <c r="G577" t="n">
+        <v>360.42</v>
+      </c>
+      <c r="H577" t="n">
+        <v>375.16</v>
+      </c>
+      <c r="I577" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -17693,7 +17834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B595"/>
+  <dimension ref="A1:B600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23651,6 +23792,56 @@
       </c>
       <c r="B595" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>
@@ -23824,28 +24015,28 @@
         <v>0.0514</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2680945266610124</v>
+        <v>-0.2752848830573598</v>
       </c>
       <c r="J2" t="n">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="K2" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01035762999697998</v>
+        <v>0.01099657602375836</v>
       </c>
       <c r="M2" t="n">
-        <v>14.6462572844758</v>
+        <v>14.62399451937892</v>
       </c>
       <c r="N2" t="n">
-        <v>344.3450258604306</v>
+        <v>343.3322849931362</v>
       </c>
       <c r="O2" t="n">
-        <v>18.55653593374665</v>
+        <v>18.52922785744555</v>
       </c>
       <c r="P2" t="n">
-        <v>343.7470301361031</v>
+        <v>343.8236195629967</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23902,28 +24093,28 @@
         <v>0.0624</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1503014927091025</v>
+        <v>-0.147505662151294</v>
       </c>
       <c r="J3" t="n">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="K3" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02601190790894137</v>
+        <v>0.02527713617151706</v>
       </c>
       <c r="M3" t="n">
-        <v>5.170688254550085</v>
+        <v>5.160350716342373</v>
       </c>
       <c r="N3" t="n">
-        <v>43.80444815138634</v>
+        <v>43.65826440998578</v>
       </c>
       <c r="O3" t="n">
-        <v>6.61849289123939</v>
+        <v>6.607440079939112</v>
       </c>
       <c r="P3" t="n">
-        <v>351.3551285738881</v>
+        <v>351.3261514458897</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23980,28 +24171,28 @@
         <v>0.0563</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1322846431759659</v>
+        <v>-0.1291889982610591</v>
       </c>
       <c r="J4" t="n">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="K4" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01839321064561616</v>
+        <v>0.0176906045070383</v>
       </c>
       <c r="M4" t="n">
-        <v>5.224489105006564</v>
+        <v>5.216683364295648</v>
       </c>
       <c r="N4" t="n">
-        <v>47.74760922596874</v>
+        <v>47.60541945684026</v>
       </c>
       <c r="O4" t="n">
-        <v>6.909964488039627</v>
+        <v>6.899668068598682</v>
       </c>
       <c r="P4" t="n">
-        <v>352.600113182999</v>
+        <v>352.5678824149033</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24058,28 +24249,28 @@
         <v>0.0462</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1183687875477368</v>
+        <v>-0.1164018203269183</v>
       </c>
       <c r="J5" t="n">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="K5" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01525834888332323</v>
+        <v>0.01488739600737377</v>
       </c>
       <c r="M5" t="n">
-        <v>5.476949155867186</v>
+        <v>5.480326987507131</v>
       </c>
       <c r="N5" t="n">
-        <v>46.80757685807245</v>
+        <v>46.74009249763734</v>
       </c>
       <c r="O5" t="n">
-        <v>6.841606306860433</v>
+        <v>6.836672618872234</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7015843248942</v>
+        <v>351.6813808551277</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24136,28 +24327,28 @@
         <v>0.0469</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.049689472743052</v>
+        <v>-0.04632224692045433</v>
       </c>
       <c r="J6" t="n">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="K6" t="n">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002810071292517979</v>
+        <v>0.002475374127876906</v>
       </c>
       <c r="M6" t="n">
-        <v>5.334221089652021</v>
+        <v>5.324325759479971</v>
       </c>
       <c r="N6" t="n">
-        <v>45.83623388043292</v>
+        <v>45.62540342546706</v>
       </c>
       <c r="O6" t="n">
-        <v>6.77024622007449</v>
+        <v>6.75465790587999</v>
       </c>
       <c r="P6" t="n">
-        <v>356.1547097846946</v>
+        <v>356.119901722079</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24214,28 +24405,28 @@
         <v>0.0407</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1390271670802765</v>
+        <v>-0.1323264627325938</v>
       </c>
       <c r="J7" t="n">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="K7" t="n">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01684644402452329</v>
+        <v>0.01540673105713997</v>
       </c>
       <c r="M7" t="n">
-        <v>5.825090248255337</v>
+        <v>5.84569167733726</v>
       </c>
       <c r="N7" t="n">
-        <v>59.9915466608375</v>
+        <v>60.11820916681332</v>
       </c>
       <c r="O7" t="n">
-        <v>7.745421012497481</v>
+        <v>7.753593306771598</v>
       </c>
       <c r="P7" t="n">
-        <v>373.0474542250277</v>
+        <v>372.9788156128724</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24292,28 +24483,28 @@
         <v>0.0253</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.09428211389415789</v>
+        <v>-0.09247521757723813</v>
       </c>
       <c r="J8" t="n">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="K8" t="n">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004255500349682473</v>
+        <v>0.004167357650060377</v>
       </c>
       <c r="M8" t="n">
-        <v>8.209906540285745</v>
+        <v>8.171848564268732</v>
       </c>
       <c r="N8" t="n">
-        <v>110.9779205116884</v>
+        <v>110.156962609033</v>
       </c>
       <c r="O8" t="n">
-        <v>10.53460585459601</v>
+        <v>10.49556871298707</v>
       </c>
       <c r="P8" t="n">
-        <v>385.3447421060616</v>
+        <v>385.3262576819675</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24351,7 +24542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I572"/>
+  <dimension ref="A1:I577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47955,6 +48146,193 @@
         </is>
       </c>
     </row>
+    <row r="573">
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>-36.63909868216104,174.75073780432683</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>-36.639691819721364,174.75012403691701</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>-36.64008624452682,174.74936434637362</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>-36.6405453072377,174.7486712849509</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>-36.64105673278038,174.74803552999273</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>-36.64164783927072,174.74750492497355</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>-36.642165399889606,174.74691375090026</t>
+        </is>
+      </c>
+      <c r="I573" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>-36.63922375555937,174.7508260439357</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>-36.639665171356974,174.750104258776</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>-36.64006124003139,174.74934168986977</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>-36.64053978986275,174.74866525917517</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>-36.64103715765972,174.7480142859077</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>-36.64164100709198,174.74749680039454</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>-36.64217775363307,174.74693064706958</t>
+        </is>
+      </c>
+      <c r="I574" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr"/>
+      <c r="C575" t="inlineStr"/>
+      <c r="D575" t="inlineStr"/>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>-36.640458938482844,174.7485769578522</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>-36.64099705766917,174.74797076706102</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>-36.64156051747433,174.74740108522454</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>-36.64219949379302,174.7469603810277</t>
+        </is>
+      </c>
+      <c r="I575" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr"/>
+      <c r="C576" t="inlineStr"/>
+      <c r="D576" t="inlineStr"/>
+      <c r="E576" t="inlineStr"/>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>-36.64107198885922,174.74805208680735</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>-36.64162168178312,174.74747381945033</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>-36.64223401157941,174.74700759096754</t>
+        </is>
+      </c>
+      <c r="I576" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr"/>
+      <c r="C577" t="inlineStr"/>
+      <c r="D577" t="inlineStr"/>
+      <c r="E577" t="inlineStr"/>
+      <c r="F577" t="inlineStr"/>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>-36.641516661333945,174.74734893330807</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>-36.642128641431896,174.7468634765459</t>
+        </is>
+      </c>
+      <c r="I577" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0148/nzd0148.xlsx
+++ b/data/nzd0148/nzd0148.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I577"/>
+  <dimension ref="A1:I578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17818,6 +17818,39 @@
         <v>375.16</v>
       </c>
       <c r="I577" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>320.3366666666667</v>
+      </c>
+      <c r="C578" t="n">
+        <v>348.9718181818182</v>
+      </c>
+      <c r="D578" t="n">
+        <v>347.7518181818182</v>
+      </c>
+      <c r="E578" t="n">
+        <v>346.8666666666667</v>
+      </c>
+      <c r="F578" t="n">
+        <v>352.8566666666667</v>
+      </c>
+      <c r="G578" t="n">
+        <v>380.94</v>
+      </c>
+      <c r="H578" t="n">
+        <v>383.39</v>
+      </c>
+      <c r="I578" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17834,7 +17867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B600"/>
+  <dimension ref="A1:B601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23842,6 +23875,16 @@
       </c>
       <c r="B600" t="n">
         <v>1.03</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>-0.87</v>
       </c>
     </row>
   </sheetData>
@@ -24015,28 +24058,28 @@
         <v>0.0514</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2752848830573598</v>
+        <v>-0.2828011834963635</v>
       </c>
       <c r="J2" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K2" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01099657602375836</v>
+        <v>0.01163095180554585</v>
       </c>
       <c r="M2" t="n">
-        <v>14.62399451937892</v>
+        <v>14.63669027669162</v>
       </c>
       <c r="N2" t="n">
-        <v>343.3322849931362</v>
+        <v>343.1562479503918</v>
       </c>
       <c r="O2" t="n">
-        <v>18.52922785744555</v>
+        <v>18.5244769953268</v>
       </c>
       <c r="P2" t="n">
-        <v>343.8236195629967</v>
+        <v>343.9040195642738</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24093,28 +24136,28 @@
         <v>0.0624</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.147505662151294</v>
+        <v>-0.1468437767871702</v>
       </c>
       <c r="J3" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K3" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02527713617151706</v>
+        <v>0.02516972975020859</v>
       </c>
       <c r="M3" t="n">
-        <v>5.160350716342373</v>
+        <v>5.151616393705</v>
       </c>
       <c r="N3" t="n">
-        <v>43.65826440998578</v>
+        <v>43.56224997291945</v>
       </c>
       <c r="O3" t="n">
-        <v>6.607440079939112</v>
+        <v>6.60017045029289</v>
       </c>
       <c r="P3" t="n">
-        <v>351.3261514458897</v>
+        <v>351.319262247965</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24171,28 +24214,28 @@
         <v>0.0563</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1291889982610591</v>
+        <v>-0.1298411557585808</v>
       </c>
       <c r="J4" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K4" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0176906045070383</v>
+        <v>0.0179450043663123</v>
       </c>
       <c r="M4" t="n">
-        <v>5.216683364295648</v>
+        <v>5.208598273129104</v>
       </c>
       <c r="N4" t="n">
-        <v>47.60541945684026</v>
+        <v>47.50626172569941</v>
       </c>
       <c r="O4" t="n">
-        <v>6.899668068598682</v>
+        <v>6.892478634402823</v>
       </c>
       <c r="P4" t="n">
-        <v>352.5678824149033</v>
+        <v>352.5747005790979</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24249,28 +24292,28 @@
         <v>0.0462</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1164018203269183</v>
+        <v>-0.1171805810763962</v>
       </c>
       <c r="J5" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K5" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01488739600737377</v>
+        <v>0.01514915272098005</v>
       </c>
       <c r="M5" t="n">
-        <v>5.480326987507131</v>
+        <v>5.472433567958641</v>
       </c>
       <c r="N5" t="n">
-        <v>46.74009249763734</v>
+        <v>46.64680330502975</v>
       </c>
       <c r="O5" t="n">
-        <v>6.836672618872234</v>
+        <v>6.82984650669616</v>
       </c>
       <c r="P5" t="n">
-        <v>351.6813808551277</v>
+        <v>351.689424355799</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24327,28 +24370,28 @@
         <v>0.0469</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04632224692045433</v>
+        <v>-0.04717790156565958</v>
       </c>
       <c r="J6" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K6" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002475374127876906</v>
+        <v>0.002577850720487995</v>
       </c>
       <c r="M6" t="n">
-        <v>5.324325759479971</v>
+        <v>5.317487071828924</v>
       </c>
       <c r="N6" t="n">
-        <v>45.62540342546706</v>
+        <v>45.53718982619817</v>
       </c>
       <c r="O6" t="n">
-        <v>6.75465790587999</v>
+        <v>6.748124911869827</v>
       </c>
       <c r="P6" t="n">
-        <v>356.119901722079</v>
+        <v>356.128775253412</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24405,28 +24448,28 @@
         <v>0.0407</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1323264627325938</v>
+        <v>-0.1277945320529203</v>
       </c>
       <c r="J7" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K7" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01540673105713997</v>
+        <v>0.01437866861840353</v>
       </c>
       <c r="M7" t="n">
-        <v>5.84569167733726</v>
+        <v>5.856560557394062</v>
       </c>
       <c r="N7" t="n">
-        <v>60.11820916681332</v>
+        <v>60.26196123229733</v>
       </c>
       <c r="O7" t="n">
-        <v>7.753593306771598</v>
+        <v>7.762857800597492</v>
       </c>
       <c r="P7" t="n">
-        <v>372.9788156128724</v>
+        <v>372.9321377381123</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24483,28 +24526,28 @@
         <v>0.0253</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.09247521757723813</v>
+        <v>-0.09229409153874811</v>
       </c>
       <c r="J8" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K8" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004167357650060377</v>
+        <v>0.004168291504742627</v>
       </c>
       <c r="M8" t="n">
-        <v>8.171848564268732</v>
+        <v>8.155316922893755</v>
       </c>
       <c r="N8" t="n">
-        <v>110.156962609033</v>
+        <v>109.9220105926116</v>
       </c>
       <c r="O8" t="n">
-        <v>10.49556871298707</v>
+        <v>10.48436982334235</v>
       </c>
       <c r="P8" t="n">
-        <v>385.3262576819675</v>
+        <v>385.324396290951</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24542,7 +24585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I577"/>
+  <dimension ref="A1:I578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29388,7 +29431,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>-36.64048073739299,174.74860076536802</t>
+          <t>-36.640480737392984,174.74860076536802</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -29912,7 +29955,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-36.6397150087172,174.7501412475639</t>
+          <t>-36.639715008717204,174.7501412475639</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -33832,7 +33875,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>-36.64217175843436,174.7469224474573</t>
+          <t>-36.64217175843435,174.7469224474573</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -48333,6 +48376,53 @@
         </is>
       </c>
     </row>
+    <row r="578">
+      <c r="A578" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>-36.63909331988114,174.7507340212321</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>-36.63966622604165,174.75010504155176</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>-36.64003748608713,174.74932016650462</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>-36.640492170543425,174.748613252005</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>-36.641013218268945,174.74798830547797</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>-36.64165018173186,174.7475077105438</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>-36.642178480323786,174.74693164096203</t>
+        </is>
+      </c>
+      <c r="I578" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0148/nzd0148.xlsx
+++ b/data/nzd0148/nzd0148.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I578"/>
+  <dimension ref="A1:I579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17853,6 +17853,39 @@
       <c r="I578" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>306.05</v>
+      </c>
+      <c r="C579" t="n">
+        <v>344.3972727272728</v>
+      </c>
+      <c r="D579" t="n">
+        <v>346.4472727272728</v>
+      </c>
+      <c r="E579" t="n">
+        <v>350.04</v>
+      </c>
+      <c r="F579" t="n">
+        <v>356.14</v>
+      </c>
+      <c r="G579" t="n">
+        <v>367.48</v>
+      </c>
+      <c r="H579" t="n">
+        <v>373.03</v>
+      </c>
+      <c r="I579" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -17867,7 +17900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B601"/>
+  <dimension ref="A1:B602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23885,6 +23918,16 @@
       </c>
       <c r="B601" t="n">
         <v>-0.87</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -24058,28 +24101,28 @@
         <v>0.0514</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2828011834963635</v>
+        <v>-0.2967482885642593</v>
       </c>
       <c r="J2" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K2" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01163095180554585</v>
+        <v>0.01277156208672303</v>
       </c>
       <c r="M2" t="n">
-        <v>14.63669027669162</v>
+        <v>14.68954773059434</v>
       </c>
       <c r="N2" t="n">
-        <v>343.1562479503918</v>
+        <v>344.4959558116353</v>
       </c>
       <c r="O2" t="n">
-        <v>18.5244769953268</v>
+        <v>18.56060224808547</v>
       </c>
       <c r="P2" t="n">
-        <v>343.9040195642738</v>
+        <v>344.0533599776692</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24136,28 +24179,28 @@
         <v>0.0624</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1468437767871702</v>
+        <v>-0.1482680933848037</v>
       </c>
       <c r="J3" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K3" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02516972975020859</v>
+        <v>0.0257528506956608</v>
       </c>
       <c r="M3" t="n">
-        <v>5.151616393705</v>
+        <v>5.147262873058762</v>
       </c>
       <c r="N3" t="n">
-        <v>43.56224997291945</v>
+        <v>43.48433180899234</v>
       </c>
       <c r="O3" t="n">
-        <v>6.60017045029289</v>
+        <v>6.59426506966412</v>
       </c>
       <c r="P3" t="n">
-        <v>351.319262247965</v>
+        <v>351.3341024195958</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24214,28 +24257,28 @@
         <v>0.0563</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1298411557585808</v>
+        <v>-0.131054867410809</v>
       </c>
       <c r="J4" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K4" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0179450043663123</v>
+        <v>0.0183512942850107</v>
       </c>
       <c r="M4" t="n">
-        <v>5.208598273129104</v>
+        <v>5.203375492153849</v>
       </c>
       <c r="N4" t="n">
-        <v>47.50626172569941</v>
+        <v>47.41945046082406</v>
       </c>
       <c r="O4" t="n">
-        <v>6.892478634402823</v>
+        <v>6.88617821878174</v>
       </c>
       <c r="P4" t="n">
-        <v>352.5747005790979</v>
+        <v>352.5874024084146</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24292,28 +24335,28 @@
         <v>0.0462</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1171805810763962</v>
+        <v>-0.1165931163847623</v>
       </c>
       <c r="J5" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K5" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01514915272098005</v>
+        <v>0.01506509924180788</v>
       </c>
       <c r="M5" t="n">
-        <v>5.472433567958641</v>
+        <v>5.463657435425433</v>
       </c>
       <c r="N5" t="n">
-        <v>46.64680330502975</v>
+        <v>46.55093499396137</v>
       </c>
       <c r="O5" t="n">
-        <v>6.82984650669616</v>
+        <v>6.822824561276757</v>
       </c>
       <c r="P5" t="n">
-        <v>351.689424355799</v>
+        <v>351.6833505368274</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24370,28 +24413,28 @@
         <v>0.0469</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04717790156565958</v>
+        <v>-0.04667193033907581</v>
       </c>
       <c r="J6" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K6" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002577850720487995</v>
+        <v>0.00253351244116673</v>
       </c>
       <c r="M6" t="n">
-        <v>5.317487071828924</v>
+        <v>5.308710332104578</v>
       </c>
       <c r="N6" t="n">
-        <v>45.53718982619817</v>
+        <v>45.44349347949561</v>
       </c>
       <c r="O6" t="n">
-        <v>6.748124911869827</v>
+        <v>6.741178938397616</v>
       </c>
       <c r="P6" t="n">
-        <v>356.128775253412</v>
+        <v>356.1235225407619</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24448,28 +24491,28 @@
         <v>0.0407</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1277945320529203</v>
+        <v>-0.1286496201297802</v>
       </c>
       <c r="J7" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K7" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01437866861840353</v>
+        <v>0.01462513865060533</v>
       </c>
       <c r="M7" t="n">
-        <v>5.856560557394062</v>
+        <v>5.848895903603522</v>
       </c>
       <c r="N7" t="n">
-        <v>60.26196123229733</v>
+        <v>60.14529739804812</v>
       </c>
       <c r="O7" t="n">
-        <v>7.762857800597492</v>
+        <v>7.755339927949524</v>
       </c>
       <c r="P7" t="n">
-        <v>372.9321377381123</v>
+        <v>372.9409546041721</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24526,28 +24569,28 @@
         <v>0.0253</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.09229409153874811</v>
+        <v>-0.0962855989938954</v>
       </c>
       <c r="J8" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K8" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004168291504742627</v>
+        <v>0.004545062984268711</v>
       </c>
       <c r="M8" t="n">
-        <v>8.155316922893755</v>
+        <v>8.159609652573559</v>
       </c>
       <c r="N8" t="n">
-        <v>109.9220105926116</v>
+        <v>109.8958442854077</v>
       </c>
       <c r="O8" t="n">
-        <v>10.48436982334235</v>
+        <v>10.48312187687464</v>
       </c>
       <c r="P8" t="n">
-        <v>385.324396290951</v>
+        <v>385.3654612101723</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24585,7 +24628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I578"/>
+  <dimension ref="A1:I579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48423,6 +48466,53 @@
         </is>
       </c>
     </row>
+    <row r="579">
+      <c r="A579" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>-36.63898139096151,174.75065505539243</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>-36.63963084488309,174.75007878204593</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>-36.640027991124896,174.74931156315762</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>-36.64051363870371,174.74863669832348</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>-36.641035491852186,174.748012478075</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>-36.641562599664354,174.7474035612814</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>-36.64211574265963,174.7468458349798</t>
+        </is>
+      </c>
+      <c r="I579" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0148/nzd0148.xlsx
+++ b/data/nzd0148/nzd0148.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I579"/>
+  <dimension ref="A1:I582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17886,6 +17886,99 @@
       <c r="I579" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>318.8866666666667</v>
+      </c>
+      <c r="C580" t="n">
+        <v>341.0063636363636</v>
+      </c>
+      <c r="D580" t="n">
+        <v>350.8063636363636</v>
+      </c>
+      <c r="E580" t="n">
+        <v>346.9466666666667</v>
+      </c>
+      <c r="F580" t="n">
+        <v>355.0866666666667</v>
+      </c>
+      <c r="G580" t="n">
+        <v>380.8</v>
+      </c>
+      <c r="H580" t="n">
+        <v>389.27</v>
+      </c>
+      <c r="I580" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:05:23+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr"/>
+      <c r="C581" t="inlineStr"/>
+      <c r="D581" t="inlineStr"/>
+      <c r="E581" t="n">
+        <v>333.2233333333333</v>
+      </c>
+      <c r="F581" t="n">
+        <v>345.2533333333333</v>
+      </c>
+      <c r="G581" t="n">
+        <v>348.79</v>
+      </c>
+      <c r="H581" t="n">
+        <v>372.19</v>
+      </c>
+      <c r="I581" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>322.2011111111111</v>
+      </c>
+      <c r="C582" t="n">
+        <v>336.6581818181818</v>
+      </c>
+      <c r="D582" t="n">
+        <v>340.4981818181818</v>
+      </c>
+      <c r="E582" t="n">
+        <v>337.5411111111111</v>
+      </c>
+      <c r="F582" t="n">
+        <v>348.5511111111111</v>
+      </c>
+      <c r="G582" t="n">
+        <v>357.72</v>
+      </c>
+      <c r="H582" t="n">
+        <v>364.13</v>
+      </c>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -17900,7 +17993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B602"/>
+  <dimension ref="A1:B605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23928,6 +24021,36 @@
       </c>
       <c r="B602" t="n">
         <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>-1.23</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -24101,28 +24224,28 @@
         <v>0.0514</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2967482885642593</v>
+        <v>-0.3110879476654838</v>
       </c>
       <c r="J2" t="n">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="K2" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01277156208672303</v>
+        <v>0.01409979806213002</v>
       </c>
       <c r="M2" t="n">
-        <v>14.68954773059434</v>
+        <v>14.71158024911009</v>
       </c>
       <c r="N2" t="n">
-        <v>344.4959558116353</v>
+        <v>344.0646544009962</v>
       </c>
       <c r="O2" t="n">
-        <v>18.56060224808547</v>
+        <v>18.54897987494181</v>
       </c>
       <c r="P2" t="n">
-        <v>344.0533599776692</v>
+        <v>344.2073269332389</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24179,28 +24302,28 @@
         <v>0.0624</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1482680933848037</v>
+        <v>-0.1560957339397133</v>
       </c>
       <c r="J3" t="n">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="K3" t="n">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0257528506956608</v>
+        <v>0.02849478062159627</v>
       </c>
       <c r="M3" t="n">
-        <v>5.147262873058762</v>
+        <v>5.164649781881854</v>
       </c>
       <c r="N3" t="n">
-        <v>43.48433180899234</v>
+        <v>43.6461321735965</v>
       </c>
       <c r="O3" t="n">
-        <v>6.59426506966412</v>
+        <v>6.606521942262547</v>
       </c>
       <c r="P3" t="n">
-        <v>351.3341024195958</v>
+        <v>351.4159491139466</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24257,28 +24380,28 @@
         <v>0.0563</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.131054867410809</v>
+        <v>-0.1341506908280274</v>
       </c>
       <c r="J4" t="n">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="K4" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0183512942850107</v>
+        <v>0.01931586720308054</v>
       </c>
       <c r="M4" t="n">
-        <v>5.203375492153849</v>
+        <v>5.203327624134085</v>
       </c>
       <c r="N4" t="n">
-        <v>47.41945046082406</v>
+        <v>47.3824944055886</v>
       </c>
       <c r="O4" t="n">
-        <v>6.88617821878174</v>
+        <v>6.88349434557686</v>
       </c>
       <c r="P4" t="n">
-        <v>352.5874024084146</v>
+        <v>352.6199936215339</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24335,28 +24458,28 @@
         <v>0.0462</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1165931163847623</v>
+        <v>-0.1285275430948274</v>
       </c>
       <c r="J5" t="n">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="K5" t="n">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01506509924180788</v>
+        <v>0.01819343069892543</v>
       </c>
       <c r="M5" t="n">
-        <v>5.463657435425433</v>
+        <v>5.488914247139665</v>
       </c>
       <c r="N5" t="n">
-        <v>46.55093499396137</v>
+        <v>47.01977359677825</v>
       </c>
       <c r="O5" t="n">
-        <v>6.822824561276757</v>
+        <v>6.85709658651373</v>
       </c>
       <c r="P5" t="n">
-        <v>351.6833505368274</v>
+        <v>351.8071292430591</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24413,28 +24536,28 @@
         <v>0.0469</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04667193033907581</v>
+        <v>-0.05312382209078074</v>
       </c>
       <c r="J6" t="n">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="K6" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00253351244116673</v>
+        <v>0.003301173267078128</v>
       </c>
       <c r="M6" t="n">
-        <v>5.308710332104578</v>
+        <v>5.310175344352818</v>
       </c>
       <c r="N6" t="n">
-        <v>45.44349347949561</v>
+        <v>45.435021705973</v>
       </c>
       <c r="O6" t="n">
-        <v>6.741178938397616</v>
+        <v>6.740550549174229</v>
       </c>
       <c r="P6" t="n">
-        <v>356.1235225407619</v>
+        <v>356.1907306373545</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24491,28 +24614,28 @@
         <v>0.0407</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1286496201297802</v>
+        <v>-0.1371157554133285</v>
       </c>
       <c r="J7" t="n">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="K7" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01462513865060533</v>
+        <v>0.01638801546003477</v>
       </c>
       <c r="M7" t="n">
-        <v>5.848895903603522</v>
+        <v>5.904982689967698</v>
       </c>
       <c r="N7" t="n">
-        <v>60.14529739804812</v>
+        <v>61.22188491744008</v>
       </c>
       <c r="O7" t="n">
-        <v>7.755339927949524</v>
+        <v>7.824441508340392</v>
       </c>
       <c r="P7" t="n">
-        <v>372.9409546041721</v>
+        <v>373.0286553773069</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24569,28 +24692,28 @@
         <v>0.0253</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0962855989938954</v>
+        <v>-0.105482402004615</v>
       </c>
       <c r="J8" t="n">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="K8" t="n">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004545062984268711</v>
+        <v>0.005464038911876856</v>
       </c>
       <c r="M8" t="n">
-        <v>8.159609652573559</v>
+        <v>8.184793401434689</v>
       </c>
       <c r="N8" t="n">
-        <v>109.8958442854077</v>
+        <v>110.2629293297983</v>
       </c>
       <c r="O8" t="n">
-        <v>10.48312187687464</v>
+        <v>10.5006156643217</v>
       </c>
       <c r="P8" t="n">
-        <v>385.3654612101723</v>
+        <v>385.460573690897</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24628,7 +24751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I579"/>
+  <dimension ref="A1:I582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48513,6 +48636,135 @@
         </is>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>-36.639081959855886,174.75072600672303</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>-36.63960461838408,174.75005931704646</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>-36.64005971819108,174.74934031093514</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>-36.6404927117576,174.7486138430885</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>-36.641028346215904,174.74800472320985</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>-36.64164927077475,174.74750662726646</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>-36.64221408815777,174.7469803417164</t>
+        </is>
+      </c>
+      <c r="I580" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:05:23+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr"/>
+      <c r="C581" t="inlineStr"/>
+      <c r="D581" t="inlineStr"/>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>-36.64039987092713,174.74851244776156</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>-36.640961638508934,174.74793232817757</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>-36.641440986659674,174.7472589443096</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>-36.64211065581909,174.7468388777441</t>
+        </is>
+      </c>
+      <c r="I581" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>-36.639107926870544,174.75074432648174</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>-36.63957098799141,174.75003435698773</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>-36.639984691441704,174.7492723295244</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>-36.64042908148439,174.7485443497869</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>-36.640984010093305,174.74795660708517</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>-36.64149909284348,174.7473280416074</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>-36.6420618463509,174.74677212145727</t>
+        </is>
+      </c>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0148/nzd0148.xlsx
+++ b/data/nzd0148/nzd0148.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I582"/>
+  <dimension ref="A1:I586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17977,6 +17977,130 @@
         <v>364.13</v>
       </c>
       <c r="I582" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>321.5022222222222</v>
+      </c>
+      <c r="C583" t="n">
+        <v>340.2954545454546</v>
+      </c>
+      <c r="D583" t="n">
+        <v>348.3854545454545</v>
+      </c>
+      <c r="E583" t="n">
+        <v>347.4222222222222</v>
+      </c>
+      <c r="F583" t="n">
+        <v>352.0022222222222</v>
+      </c>
+      <c r="G583" t="n">
+        <v>377.26</v>
+      </c>
+      <c r="H583" t="n">
+        <v>381.42</v>
+      </c>
+      <c r="I583" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>311.9633333333333</v>
+      </c>
+      <c r="C584" t="n">
+        <v>351.7190909090909</v>
+      </c>
+      <c r="D584" t="n">
+        <v>355.5490909090909</v>
+      </c>
+      <c r="E584" t="n">
+        <v>351.1633333333333</v>
+      </c>
+      <c r="F584" t="n">
+        <v>361.5633333333333</v>
+      </c>
+      <c r="G584" t="n">
+        <v>376.82</v>
+      </c>
+      <c r="H584" t="n">
+        <v>393.74</v>
+      </c>
+      <c r="I584" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>311.57</v>
+      </c>
+      <c r="C585" t="n">
+        <v>337.4663636363636</v>
+      </c>
+      <c r="D585" t="n">
+        <v>346.3463636363636</v>
+      </c>
+      <c r="E585" t="n">
+        <v>341.75</v>
+      </c>
+      <c r="F585" t="n">
+        <v>350.19</v>
+      </c>
+      <c r="G585" t="n">
+        <v>366.96</v>
+      </c>
+      <c r="H585" t="n">
+        <v>372.41</v>
+      </c>
+      <c r="I585" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr"/>
+      <c r="C586" t="inlineStr"/>
+      <c r="D586" t="inlineStr"/>
+      <c r="E586" t="inlineStr"/>
+      <c r="F586" t="n">
+        <v>355.3877777777778</v>
+      </c>
+      <c r="G586" t="n">
+        <v>370.16</v>
+      </c>
+      <c r="H586" t="n">
+        <v>371.42</v>
+      </c>
+      <c r="I586" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17993,7 +18117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B605"/>
+  <dimension ref="A1:B609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24051,6 +24175,46 @@
       </c>
       <c r="B605" t="n">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -24224,28 +24388,28 @@
         <v>0.0514</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3110879476654838</v>
+        <v>-0.3394229517355032</v>
       </c>
       <c r="J2" t="n">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="K2" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01409979806213002</v>
+        <v>0.01681689425050592</v>
       </c>
       <c r="M2" t="n">
-        <v>14.71158024911009</v>
+        <v>14.78575475086573</v>
       </c>
       <c r="N2" t="n">
-        <v>344.0646544009962</v>
+        <v>344.8416243483015</v>
       </c>
       <c r="O2" t="n">
-        <v>18.54897987494181</v>
+        <v>18.56991180238349</v>
       </c>
       <c r="P2" t="n">
-        <v>344.2073269332389</v>
+        <v>344.512669620502</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24302,28 +24466,28 @@
         <v>0.0624</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1560957339397133</v>
+        <v>-0.1617144807513863</v>
       </c>
       <c r="J3" t="n">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="K3" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02849478062159627</v>
+        <v>0.03067685542293452</v>
       </c>
       <c r="M3" t="n">
-        <v>5.164649781881854</v>
+        <v>5.178950806660078</v>
       </c>
       <c r="N3" t="n">
-        <v>43.6461321735965</v>
+        <v>43.72561979049117</v>
       </c>
       <c r="O3" t="n">
-        <v>6.606521942262547</v>
+        <v>6.6125350502278</v>
       </c>
       <c r="P3" t="n">
-        <v>351.4159491139466</v>
+        <v>351.4748896479</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24380,28 +24544,28 @@
         <v>0.0563</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1341506908280274</v>
+        <v>-0.1329281128927325</v>
       </c>
       <c r="J4" t="n">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="K4" t="n">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01931586720308054</v>
+        <v>0.01918266213748321</v>
       </c>
       <c r="M4" t="n">
-        <v>5.203327624134085</v>
+        <v>5.191107414128471</v>
       </c>
       <c r="N4" t="n">
-        <v>47.3824944055886</v>
+        <v>47.18256120773739</v>
       </c>
       <c r="O4" t="n">
-        <v>6.88349434557686</v>
+        <v>6.868956340503074</v>
       </c>
       <c r="P4" t="n">
-        <v>352.6199936215339</v>
+        <v>352.6071328539671</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24458,28 +24622,28 @@
         <v>0.0462</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1285275430948274</v>
+        <v>-0.1306479097215748</v>
       </c>
       <c r="J5" t="n">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="K5" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01819343069892543</v>
+        <v>0.01898785581919249</v>
       </c>
       <c r="M5" t="n">
-        <v>5.488914247139665</v>
+        <v>5.476261633186703</v>
       </c>
       <c r="N5" t="n">
-        <v>47.01977359677825</v>
+        <v>46.83433686896088</v>
       </c>
       <c r="O5" t="n">
-        <v>6.85709658651373</v>
+        <v>6.843561709297351</v>
       </c>
       <c r="P5" t="n">
-        <v>351.8071292430591</v>
+        <v>351.8292104686641</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24536,28 +24700,28 @@
         <v>0.0469</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05312382209078074</v>
+        <v>-0.05316893004297587</v>
       </c>
       <c r="J6" t="n">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="K6" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003301173267078128</v>
+        <v>0.003350410772714918</v>
       </c>
       <c r="M6" t="n">
-        <v>5.310175344352818</v>
+        <v>5.296594643253802</v>
       </c>
       <c r="N6" t="n">
-        <v>45.435021705973</v>
+        <v>45.21158886876368</v>
       </c>
       <c r="O6" t="n">
-        <v>6.740550549174229</v>
+        <v>6.723956340486134</v>
       </c>
       <c r="P6" t="n">
-        <v>356.1907306373545</v>
+        <v>356.1912158795751</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24614,28 +24778,28 @@
         <v>0.0407</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1371157554133285</v>
+        <v>-0.1319887023937701</v>
       </c>
       <c r="J7" t="n">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="K7" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01638801546003477</v>
+        <v>0.01538295591428118</v>
       </c>
       <c r="M7" t="n">
-        <v>5.904982689967698</v>
+        <v>5.892875969090007</v>
       </c>
       <c r="N7" t="n">
-        <v>61.22188491744008</v>
+        <v>60.96455583032581</v>
       </c>
       <c r="O7" t="n">
-        <v>7.824441508340392</v>
+        <v>7.807980265748999</v>
       </c>
       <c r="P7" t="n">
-        <v>373.0286553773069</v>
+        <v>372.9754539547699</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24692,28 +24856,28 @@
         <v>0.0253</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.105482402004615</v>
+        <v>-0.1101487881537961</v>
       </c>
       <c r="J8" t="n">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="K8" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005464038911876856</v>
+        <v>0.006011189517390658</v>
       </c>
       <c r="M8" t="n">
-        <v>8.184793401434689</v>
+        <v>8.187736706009201</v>
       </c>
       <c r="N8" t="n">
-        <v>110.2629293297983</v>
+        <v>110.0848195923064</v>
       </c>
       <c r="O8" t="n">
-        <v>10.5006156643217</v>
+        <v>10.49213131791184</v>
       </c>
       <c r="P8" t="n">
-        <v>385.460573690897</v>
+        <v>385.5089891685072</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24751,7 +24915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I582"/>
+  <dimension ref="A1:I586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48765,6 +48929,178 @@
         </is>
       </c>
     </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>-36.6391024514259,174.750740463548</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>-36.639599119959435,174.75005523618233</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>-36.640042097925665,174.7493243452739</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>-36.64049592897521,174.74861735675168</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>-36.641007421860124,174.7479820148789</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>-36.641626236570154,174.74747923583345</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>-36.64216655048348,174.74691532456285</t>
+        </is>
+      </c>
+      <c r="I583" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>-36.63902771899111,174.7506877397784</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>-36.63968747442105,174.75012081187882</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>-36.64009423749498,174.7493715887839</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>-36.64052123825085,174.7486449981263</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>-36.64107228282514,174.74805240583694</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>-36.64162337356121,174.7474758312497</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>-36.64224115736426,174.74701736425857</t>
+        </is>
+      </c>
+      <c r="I584" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>-36.639024637420135,174.75068556573123</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>-36.639577238758974,174.75003899622757</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>-36.64002725667135,174.74931089767233</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>-36.6404575553794,174.74857544730682</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>-36.64099512804512,174.74796867292216</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>-36.64155921610554,174.7473995376891</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>-36.64211198808689,174.7468406998772</t>
+        </is>
+      </c>
+      <c r="I585" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr"/>
+      <c r="C586" t="inlineStr"/>
+      <c r="D586" t="inlineStr"/>
+      <c r="E586" t="inlineStr"/>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>-36.64103038890313,174.74800694005407</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>-36.64158003800364,174.7474242982628</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>-36.642105992881554,174.74683250027883</t>
+        </is>
+      </c>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0148/nzd0148.xlsx
+++ b/data/nzd0148/nzd0148.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I586"/>
+  <dimension ref="A1:I589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18101,6 +18101,99 @@
         <v>371.42</v>
       </c>
       <c r="I586" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>334.5655555555555</v>
+      </c>
+      <c r="C587" t="n">
+        <v>347.09</v>
+      </c>
+      <c r="D587" t="n">
+        <v>348.03</v>
+      </c>
+      <c r="E587" t="n">
+        <v>344.4255555555555</v>
+      </c>
+      <c r="F587" t="n">
+        <v>355.7955555555556</v>
+      </c>
+      <c r="G587" t="n">
+        <v>370.66</v>
+      </c>
+      <c r="H587" t="n">
+        <v>380.11</v>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:11:56+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr"/>
+      <c r="C588" t="inlineStr"/>
+      <c r="D588" t="inlineStr"/>
+      <c r="E588" t="n">
+        <v>336.1677777777778</v>
+      </c>
+      <c r="F588" t="n">
+        <v>352.5877777777778</v>
+      </c>
+      <c r="G588" t="n">
+        <v>363.42</v>
+      </c>
+      <c r="H588" t="n">
+        <v>385.22</v>
+      </c>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>346.3211111111111</v>
+      </c>
+      <c r="C589" t="n">
+        <v>346.199090909091</v>
+      </c>
+      <c r="D589" t="n">
+        <v>348.8590909090909</v>
+      </c>
+      <c r="E589" t="n">
+        <v>348.8511111111111</v>
+      </c>
+      <c r="F589" t="n">
+        <v>359.3011111111111</v>
+      </c>
+      <c r="G589" t="n">
+        <v>376.81</v>
+      </c>
+      <c r="H589" t="n">
+        <v>381.72</v>
+      </c>
+      <c r="I589" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18117,7 +18210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B609"/>
+  <dimension ref="A1:B612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24215,6 +24308,36 @@
       </c>
       <c r="B609" t="n">
         <v>0.53</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -24388,28 +24511,28 @@
         <v>0.0514</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3394229517355032</v>
+        <v>-0.3351646040394033</v>
       </c>
       <c r="J2" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="K2" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01681689425050592</v>
+        <v>0.01653977544184915</v>
       </c>
       <c r="M2" t="n">
-        <v>14.78575475086573</v>
+        <v>14.74107746869948</v>
       </c>
       <c r="N2" t="n">
-        <v>344.8416243483015</v>
+        <v>343.542512758919</v>
       </c>
       <c r="O2" t="n">
-        <v>18.56991180238349</v>
+        <v>18.53489985834612</v>
       </c>
       <c r="P2" t="n">
-        <v>344.512669620502</v>
+        <v>344.4665059819837</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24466,28 +24589,28 @@
         <v>0.0624</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1617144807513863</v>
+        <v>-0.1622651921265055</v>
       </c>
       <c r="J3" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="K3" t="n">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03067685542293452</v>
+        <v>0.0311565855595759</v>
       </c>
       <c r="M3" t="n">
-        <v>5.178950806660078</v>
+        <v>5.158353992884535</v>
       </c>
       <c r="N3" t="n">
-        <v>43.72561979049117</v>
+        <v>43.52991929634682</v>
       </c>
       <c r="O3" t="n">
-        <v>6.6125350502278</v>
+        <v>6.59772076526029</v>
       </c>
       <c r="P3" t="n">
-        <v>351.4748896479</v>
+        <v>351.4806951648812</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24544,28 +24667,28 @@
         <v>0.0563</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1329281128927325</v>
+        <v>-0.1335257841798097</v>
       </c>
       <c r="J4" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="K4" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01918266213748321</v>
+        <v>0.0195219414077562</v>
       </c>
       <c r="M4" t="n">
-        <v>5.191107414128471</v>
+        <v>5.171819451476038</v>
       </c>
       <c r="N4" t="n">
-        <v>47.18256120773739</v>
+        <v>46.98290295823939</v>
       </c>
       <c r="O4" t="n">
-        <v>6.868956340503074</v>
+        <v>6.854407557056947</v>
       </c>
       <c r="P4" t="n">
-        <v>352.6071328539671</v>
+        <v>352.6134470887296</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24622,28 +24745,28 @@
         <v>0.0462</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1306479097215748</v>
+        <v>-0.1371707873676632</v>
       </c>
       <c r="J5" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="K5" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01898785581919249</v>
+        <v>0.02100776839269058</v>
       </c>
       <c r="M5" t="n">
-        <v>5.476261633186703</v>
+        <v>5.476783731989308</v>
       </c>
       <c r="N5" t="n">
-        <v>46.83433686896088</v>
+        <v>46.88561745417581</v>
       </c>
       <c r="O5" t="n">
-        <v>6.843561709297351</v>
+        <v>6.847307314132746</v>
       </c>
       <c r="P5" t="n">
-        <v>351.8292104686641</v>
+        <v>351.8973590402921</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24700,28 +24823,28 @@
         <v>0.0469</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05316893004297587</v>
+        <v>-0.05187489729131557</v>
       </c>
       <c r="J6" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="K6" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003350410772714918</v>
+        <v>0.003225422767983432</v>
       </c>
       <c r="M6" t="n">
-        <v>5.296594643253802</v>
+        <v>5.279279056547902</v>
       </c>
       <c r="N6" t="n">
-        <v>45.21158886876368</v>
+        <v>44.98327112591354</v>
       </c>
       <c r="O6" t="n">
-        <v>6.723956340486134</v>
+        <v>6.706956919938695</v>
       </c>
       <c r="P6" t="n">
-        <v>356.1912158795751</v>
+        <v>356.1776151625388</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24778,28 +24901,28 @@
         <v>0.0407</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1319887023937701</v>
+        <v>-0.1311157876215268</v>
       </c>
       <c r="J7" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="K7" t="n">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01538295591428118</v>
+        <v>0.01531488861222574</v>
       </c>
       <c r="M7" t="n">
-        <v>5.892875969090007</v>
+        <v>5.886181576620183</v>
       </c>
       <c r="N7" t="n">
-        <v>60.96455583032581</v>
+        <v>60.77702926229546</v>
       </c>
       <c r="O7" t="n">
-        <v>7.807980265748999</v>
+        <v>7.795962369220073</v>
       </c>
       <c r="P7" t="n">
-        <v>372.9754539547699</v>
+        <v>372.9663234340515</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24856,28 +24979,28 @@
         <v>0.0253</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1101487881537961</v>
+        <v>-0.1104838976624319</v>
       </c>
       <c r="J8" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="K8" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006011189517390658</v>
+        <v>0.006118767056797814</v>
       </c>
       <c r="M8" t="n">
-        <v>8.187736706009201</v>
+        <v>8.149088754773144</v>
       </c>
       <c r="N8" t="n">
-        <v>110.0848195923064</v>
+        <v>109.424413461409</v>
       </c>
       <c r="O8" t="n">
-        <v>10.49213131791184</v>
+        <v>10.46061248022356</v>
       </c>
       <c r="P8" t="n">
-        <v>385.5089891685072</v>
+        <v>385.5124596811645</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24915,7 +25038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I586"/>
+  <dimension ref="A1:I589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49101,6 +49224,135 @@
         </is>
       </c>
     </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>-36.63920479608053,174.75081266795175</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>-36.63965167139256,174.7500942392481</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>-36.64003951079675,174.74932200108617</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>-36.640475655992326,174.74859521575277</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>-36.64103315519903,174.7480099422012</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>-36.641583291424716,174.74742816710364</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>-36.64215861744113,174.74690447457428</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:11:56+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr"/>
+      <c r="C588" t="inlineStr"/>
+      <c r="D588" t="inlineStr"/>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>-36.64041979063394,174.7485342028714</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>-36.64101139417154,174.74798632586152</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>-36.64153618187425,174.74737214631995</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>-36.64218956235603,174.7469467978247</t>
+        </is>
+      </c>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>-36.63929689491,174.75087764409793</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>-36.63964478078537,174.75008912511547</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>-36.64004554522524,174.74932746885932</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>-36.64050559566106,174.748627914162</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>-36.64105693629528,174.7480357508593</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>-36.64162330849281,174.74747575387278</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>-36.64216836721058,174.74691780929336</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0148/nzd0148.xlsx
+++ b/data/nzd0148/nzd0148.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I589"/>
+  <dimension ref="A1:I591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18194,6 +18194,72 @@
         <v>381.72</v>
       </c>
       <c r="I589" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>346.1055555555556</v>
+      </c>
+      <c r="C590" t="n">
+        <v>346.6954545454545</v>
+      </c>
+      <c r="D590" t="n">
+        <v>347.9954545454545</v>
+      </c>
+      <c r="E590" t="n">
+        <v>347.2255555555556</v>
+      </c>
+      <c r="F590" t="n">
+        <v>350.3055555555555</v>
+      </c>
+      <c r="G590" t="n">
+        <v>372.66</v>
+      </c>
+      <c r="H590" t="n">
+        <v>383.02</v>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>332.9133333333333</v>
+      </c>
+      <c r="C591" t="n">
+        <v>340.2209090909091</v>
+      </c>
+      <c r="D591" t="n">
+        <v>341.4009090909091</v>
+      </c>
+      <c r="E591" t="n">
+        <v>336.2833333333333</v>
+      </c>
+      <c r="F591" t="n">
+        <v>350.5133333333333</v>
+      </c>
+      <c r="G591" t="n">
+        <v>365.96</v>
+      </c>
+      <c r="H591" t="n">
+        <v>375.61</v>
+      </c>
+      <c r="I591" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18210,7 +18276,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B612"/>
+  <dimension ref="A1:B614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24338,6 +24404,26 @@
       </c>
       <c r="B612" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -25038,7 +25124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I589"/>
+  <dimension ref="A1:I591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49353,6 +49439,100 @@
         </is>
       </c>
     </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>-36.63929520614167,174.75087645266245</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>-36.639648619837985,174.7500919744178</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>-36.64003925936222,174.74932177326232</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>-36.64049459849038,174.7486159036713</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>-36.640995911954896,174.74796952366606</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>-36.641596305107655,174.74744364247033</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>-36.64217623969405,174.7469285764603</t>
+        </is>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>-36.639191851752166,174.75080353568373</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>-36.639598543398264,174.75005480826567</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>-36.63999126182548,174.74927828291365</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>-36.64042057238839,174.74853505665712</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>-36.640997321484946,174.74797105336907</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>-36.641552709261234,174.74739180001254</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>-36.642131366524254,174.7468672036381</t>
+        </is>
+      </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0148/nzd0148.xlsx
+++ b/data/nzd0148/nzd0148.xlsx
@@ -24597,28 +24597,28 @@
         <v>0.0514</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3351646040394033</v>
+        <v>-0.3318337829758908</v>
       </c>
       <c r="J2" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="K2" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01653977544184915</v>
+        <v>0.01635065879335573</v>
       </c>
       <c r="M2" t="n">
-        <v>14.74107746869948</v>
+        <v>14.7009203318772</v>
       </c>
       <c r="N2" t="n">
-        <v>343.542512758919</v>
+        <v>342.2572168091654</v>
       </c>
       <c r="O2" t="n">
-        <v>18.53489985834612</v>
+        <v>18.50019504786815</v>
       </c>
       <c r="P2" t="n">
-        <v>344.4665059819837</v>
+        <v>344.4304316940506</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24675,28 +24675,28 @@
         <v>0.0624</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1622651921265055</v>
+        <v>-0.1655976778942653</v>
       </c>
       <c r="J3" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="K3" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0311565855595759</v>
+        <v>0.03261646785354722</v>
       </c>
       <c r="M3" t="n">
-        <v>5.158353992884535</v>
+        <v>5.152420030054145</v>
       </c>
       <c r="N3" t="n">
-        <v>43.52991929634682</v>
+        <v>43.44455495911424</v>
       </c>
       <c r="O3" t="n">
-        <v>6.59772076526029</v>
+        <v>6.591248361207021</v>
       </c>
       <c r="P3" t="n">
-        <v>351.4806951648812</v>
+        <v>351.5159081818234</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24753,28 +24753,28 @@
         <v>0.0563</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1335257841798097</v>
+        <v>-0.1372807306083065</v>
       </c>
       <c r="J4" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="K4" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0195219414077562</v>
+        <v>0.02073686923429119</v>
       </c>
       <c r="M4" t="n">
-        <v>5.171819451476038</v>
+        <v>5.168270611093706</v>
       </c>
       <c r="N4" t="n">
-        <v>46.98290295823939</v>
+        <v>46.9113426523778</v>
       </c>
       <c r="O4" t="n">
-        <v>6.854407557056947</v>
+        <v>6.849185546645513</v>
       </c>
       <c r="P4" t="n">
-        <v>352.6134470887296</v>
+        <v>352.6532816064095</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24831,28 +24831,28 @@
         <v>0.0462</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1371707873676632</v>
+        <v>-0.1425463113019833</v>
       </c>
       <c r="J5" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="K5" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02100776839269058</v>
+        <v>0.02269689249400275</v>
       </c>
       <c r="M5" t="n">
-        <v>5.476783731989308</v>
+        <v>5.481649308676973</v>
       </c>
       <c r="N5" t="n">
-        <v>46.88561745417581</v>
+        <v>46.99255252492448</v>
       </c>
       <c r="O5" t="n">
-        <v>6.847307314132746</v>
+        <v>6.855111415938072</v>
       </c>
       <c r="P5" t="n">
-        <v>351.8973590402921</v>
+        <v>351.9537131762896</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24909,28 +24909,28 @@
         <v>0.0469</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05187489729131557</v>
+        <v>-0.05534248744993061</v>
       </c>
       <c r="J6" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="K6" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003225422767983432</v>
+        <v>0.003692728905047016</v>
       </c>
       <c r="M6" t="n">
-        <v>5.279279056547902</v>
+        <v>5.276150804815322</v>
       </c>
       <c r="N6" t="n">
-        <v>44.98327112591354</v>
+        <v>44.87655182439793</v>
       </c>
       <c r="O6" t="n">
-        <v>6.706956919938695</v>
+        <v>6.698996329630128</v>
       </c>
       <c r="P6" t="n">
-        <v>356.1776151625388</v>
+        <v>356.2141096766568</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24987,28 +24987,28 @@
         <v>0.0407</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1311157876215268</v>
+        <v>-0.1312998307220922</v>
       </c>
       <c r="J7" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="K7" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01531488861222574</v>
+        <v>0.01546455945088976</v>
       </c>
       <c r="M7" t="n">
-        <v>5.886181576620183</v>
+        <v>5.875836030304279</v>
       </c>
       <c r="N7" t="n">
-        <v>60.77702926229546</v>
+        <v>60.57450316297896</v>
       </c>
       <c r="O7" t="n">
-        <v>7.795962369220073</v>
+        <v>7.782962364227323</v>
       </c>
       <c r="P7" t="n">
-        <v>372.9663234340515</v>
+        <v>372.9682756156272</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25065,28 +25065,28 @@
         <v>0.0253</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1104838976624319</v>
+        <v>-0.1130389380112563</v>
       </c>
       <c r="J8" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="K8" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006118767056797814</v>
+        <v>0.006447936689391698</v>
       </c>
       <c r="M8" t="n">
-        <v>8.149088754773144</v>
+        <v>8.13088706300417</v>
       </c>
       <c r="N8" t="n">
-        <v>109.424413461409</v>
+        <v>109.071580506385</v>
       </c>
       <c r="O8" t="n">
-        <v>10.46061248022356</v>
+        <v>10.44373403081412</v>
       </c>
       <c r="P8" t="n">
-        <v>385.5124596811645</v>
+        <v>385.5391532313522</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">

--- a/data/nzd0148/nzd0148.xlsx
+++ b/data/nzd0148/nzd0148.xlsx
@@ -24588,13 +24588,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0393</v>
+        <v>0.0347</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0514</v>
+        <v>0.0456</v>
       </c>
       <c r="I2" t="n">
         <v>-0.3318379925231623</v>
@@ -24669,10 +24669,10 @@
         <v>0.055</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0527</v>
+        <v>0.0504</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0624</v>
+        <v>0.0598</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1655699862116623</v>
@@ -24747,10 +24747,10 @@
         <v>0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0493</v>
+        <v>0.0533</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0563</v>
+        <v>0.0619</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1372459338058869</v>
@@ -24822,13 +24822,13 @@
         <v>0.50033184455213</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0444</v>
+        <v>0.0494</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0462</v>
+        <v>0.0585</v>
       </c>
       <c r="I5" t="n">
         <v>-0.1425409857421193</v>
@@ -24900,13 +24900,13 @@
         <v>0.6675627510482669</v>
       </c>
       <c r="F6" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0445</v>
+        <v>0.0538</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0469</v>
+        <v>0.0609</v>
       </c>
       <c r="I6" t="n">
         <v>-0.05533920435158866</v>
@@ -24981,10 +24981,10 @@
         <v>0.04</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0398</v>
+        <v>0.0392</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0407</v>
+        <v>0.0427</v>
       </c>
       <c r="I7" t="n">
         <v>-0.1312998307220922</v>
@@ -25059,10 +25059,10 @@
         <v>0.025</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0249</v>
+        <v>0.025</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0253</v>
+        <v>0.0302</v>
       </c>
       <c r="I8" t="n">
         <v>-0.1130389380112563</v>
